--- a/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
@@ -941,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Azure Application Delivery</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -6823,7 +6823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Locatários de Cobrança do Azure e ID do Microsoft Entra</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6934,11 +6934,6 @@
           <t>Abrir</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Gerenciamento de identidades e acesso</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>Há um item de ação associado a essa verificação</t>
@@ -6961,11 +6956,6 @@
           <t>Cumprido</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Topologia de rede e conectividade</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Essa verificação foi verificada e não há outros itens de ação associados a ela</t>
@@ -6983,11 +6973,6 @@
           <t>Não é necessário</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Recomendação compreendida, mas não necessária pelos requisitos atuais</t>
@@ -7005,11 +6990,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Gestão</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>Não aplicável ao projeto atual</t>
@@ -7018,27 +6998,6 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>es</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Organização de Recursos</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Automação de Plataforma e DevOps</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Governança</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - App Gateway</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Load Balancer</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - App Gateway</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Seus gateways de aplicativo devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /26</t>
+          <t>Seus Application Gateways v2 devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /24</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - App Gateway</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - App Gateway</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - App Gateway</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
+          <t>Configure o dimensionamento automático com uma quantidade mínima de duas instâncias.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1432,19 +1432,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1460,12 +1460,12 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - App Gateway</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente do Front Door.</t>
+          <t>Implantar o Application Gateway em zonas de disponibilidade</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1482,19 +1482,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1510,18 +1510,18 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
+          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1544,7 +1544,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1565,13 +1565,13 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo de ID do Microsoft Entra foi considerado uma alternativa à Área de Trabalho Virtual (AVD) do Azure?</t>
+          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente do Front Door.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1582,19 +1582,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1610,18 +1610,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Gerenciador de Tráfego</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Microsoft Entra ID Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
+          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1632,19 +1632,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1665,13 +1665,13 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
+          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo de ID do Microsoft Entra foi considerado uma alternativa à Área de Trabalho Virtual (AVD) do Azure?</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1682,15 +1682,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I20" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1711,13 +1715,13 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Evite combinar o Gerenciador de Tráfego do Azure e o Azure Front Door.</t>
+          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Microsoft Entra ID Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1728,15 +1732,19 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1752,12 +1760,12 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1774,7 +1782,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1782,7 +1790,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1798,18 +1806,18 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Desabilite os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
+          <t>Evite combinar o Gerenciador de Tráfego do Azure e o Azure Front Door.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1820,7 +1828,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1828,7 +1836,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1844,18 +1852,18 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do seu aplicativo.</t>
+          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1866,7 +1874,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1874,7 +1882,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1890,12 +1898,12 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Use testes de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
+          <t>Desabilite os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1912,7 +1920,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1920,7 +1928,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1936,18 +1944,18 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhor escalabilidade do SNAT</t>
+          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do seu aplicativo.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1958,7 +1966,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1966,7 +1974,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1982,18 +1990,18 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
+          <t>Use testes de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2004,14 +2012,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2027,18 +2035,18 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Load Balancer</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões do conjunto de regras e obter proteção adicional.</t>
+          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhor escalabilidade do SNAT</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2049,14 +2057,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2072,12 +2080,12 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2094,14 +2102,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2117,12 +2125,12 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões do conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2139,14 +2147,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2162,12 +2170,12 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
+          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2184,14 +2192,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2207,18 +2215,18 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2229,7 +2237,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2237,7 +2245,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2253,12 +2261,12 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2275,7 +2283,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2283,7 +2291,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2299,12 +2307,12 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2321,7 +2329,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2329,7 +2337,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2345,12 +2353,12 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
+          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2367,7 +2375,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2375,7 +2383,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2391,18 +2399,18 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2413,7 +2421,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2421,7 +2429,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2437,18 +2445,18 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2459,7 +2467,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2467,7 +2475,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2483,12 +2491,12 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2505,7 +2513,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2513,7 +2521,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2529,18 +2537,18 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2551,7 +2559,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2559,7 +2567,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2575,12 +2583,12 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2597,7 +2605,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2605,7 +2613,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2614,34 +2622,92 @@
       <c r="P40" s="25" t="n"/>
     </row>
     <row r="41" ht="16.5" customHeight="1">
-      <c r="A41" s="21" t="n"/>
-      <c r="B41" s="21" t="n"/>
-      <c r="C41" s="21" t="n"/>
+      <c r="A41" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B41" s="21" t="inlineStr">
+        <is>
+          <t>Entrega de aplicativos - Front Door</t>
+        </is>
+      </c>
+      <c r="C41" s="21" t="inlineStr">
+        <is>
+          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+        </is>
+      </c>
       <c r="D41" s="21" t="n"/>
-      <c r="E41" s="21" t="n"/>
+      <c r="E41" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G41" s="21" t="n"/>
-      <c r="H41" s="15" t="n"/>
+      <c r="H41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
-      <c r="L41" s="25" t="n"/>
+      <c r="L41" s="25" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M41" s="25" t="n"/>
       <c r="N41" s="25" t="n"/>
       <c r="O41" s="25" t="n"/>
       <c r="P41" s="25" t="n"/>
     </row>
     <row r="42" ht="16.5" customHeight="1">
-      <c r="A42" s="21" t="n"/>
-      <c r="B42" s="21" t="n"/>
-      <c r="C42" s="21" t="n"/>
+      <c r="A42" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B42" s="21" t="inlineStr">
+        <is>
+          <t>Entrega de aplicativos - Front Door</t>
+        </is>
+      </c>
+      <c r="C42" s="21" t="inlineStr">
+        <is>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+        </is>
+      </c>
       <c r="D42" s="21" t="n"/>
-      <c r="E42" s="21" t="n"/>
+      <c r="E42" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G42" s="21" t="n"/>
-      <c r="H42" s="15" t="n"/>
+      <c r="H42" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
-      <c r="L42" s="25" t="n"/>
+      <c r="L42" s="25" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M42" s="25" t="n"/>
       <c r="N42" s="25" t="n"/>
       <c r="O42" s="25" t="n"/>
@@ -6808,7 +6874,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F41" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F43" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
@@ -1144,7 +1144,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>b71ca41b-3a80-48f3-a6cd-22cdf197c1cf</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - App Gateway</t>
+          <t>Entrega de aplicativos - Load Balancer</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Seus Application Gateways v2 devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /24</t>
+          <t>Verifique se os endereços IP de front-end dos Load Balancers são redundantes por zona (a menos que você precise de frontends zonais).</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1278,19 +1278,15 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-standard-availability-zones</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="n"/>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1311,14 +1307,10 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para fazer proxy de conexões HTTP(S) de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="inlineStr">
-        <is>
-          <t>A administração de proxies reversos em geral e do WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura do aplicativo. Centralizar o Application Gateway e o WAF na assinatura de conectividade pode ser OK se for gerenciado por uma única equipe.</t>
-        </is>
-      </c>
+          <t>Seus Application Gateways v2 devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /24</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1332,7 +1324,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
@@ -1344,7 +1336,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1365,10 +1357,14 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="n"/>
+          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para fazer proxy de conexões HTTP(S) de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="inlineStr">
+        <is>
+          <t>A administração de proxies reversos em geral e do WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura que o aplicativo. Centralizar o Application Gateway e o WAF na assinatura de conectividade pode ser OK se for gerenciado por uma única equipe.</t>
+        </is>
+      </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1387,14 +1383,14 @@
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1415,7 +1411,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Configure o dimensionamento automático com uma quantidade mínima de duas instâncias.</t>
+          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1432,19 +1428,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
+          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1465,7 +1461,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Implantar o Application Gateway em zonas de disponibilidade</t>
+          <t>Configure o dimensionamento automático com uma quantidade mínima de duas instâncias.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1482,7 +1478,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
@@ -1494,7 +1490,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1510,12 +1506,12 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Entrega de aplicativos - App Gateway</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
+          <t>Implantar o Application Gateway em zonas de disponibilidade</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1532,19 +1528,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1560,12 +1556,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente do Front Door.</t>
+          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1582,7 +1578,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
@@ -1594,7 +1590,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1610,18 +1606,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Gerenciador de Tráfego</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
+          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente do Front Door.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1632,7 +1628,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
@@ -1644,7 +1640,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1660,18 +1656,18 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Entrega de aplicativos - Gerenciador de Tráfego</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo de ID do Microsoft Entra foi considerado uma alternativa à Área de Trabalho Virtual (AVD) do Azure?</t>
+          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1682,19 +1678,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1715,13 +1711,13 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Microsoft Entra ID Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
+          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo de ID do Microsoft Entra foi considerado uma alternativa à Área de Trabalho Virtual (AVD) do Azure?</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1737,14 +1733,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1760,18 +1756,18 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
+          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Microsoft Entra ID Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1782,15 +1778,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I22" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Evite combinar o Gerenciador de Tráfego do Azure e o Azure Front Door.</t>
+          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1828,7 +1828,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1836,7 +1836,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+          <t>Evite combinar o Gerenciador de Tráfego do Azure e o Azure Front Door.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1874,7 +1874,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1882,7 +1882,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1903,13 +1903,13 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Desabilite os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
+          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1920,7 +1920,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1928,7 +1928,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1949,13 +1949,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do seu aplicativo.</t>
+          <t>Desabilite os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1966,7 +1966,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1974,7 +1974,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1995,13 +1995,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Use testes de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
+          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do seu aplicativo.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2012,14 +2012,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2035,18 +2035,18 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Load Balancer</t>
+          <t>Entrega de aplicativos - Front Door</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhor escalabilidade do SNAT</t>
+          <t>Use testes de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2057,14 +2057,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2080,12 +2080,12 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Entrega de aplicativos - Load Balancer</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
+          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhor escalabilidade do SNAT</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2102,14 +2102,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2130,13 +2130,13 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões do conjunto de regras e obter proteção adicional.</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2147,14 +2147,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2175,13 +2175,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões do conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2192,14 +2192,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2220,13 +2220,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2237,7 +2237,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2245,7 +2245,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2266,13 +2266,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2283,7 +2283,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2291,7 +2291,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2329,7 +2329,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2337,7 +2337,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2375,7 +2375,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2383,7 +2383,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2421,7 +2421,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2429,7 +2429,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
+          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2467,7 +2467,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2475,7 +2475,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2496,13 +2496,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2513,7 +2513,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2521,7 +2521,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2559,7 +2559,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2567,7 +2567,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2605,7 +2605,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2613,7 +2613,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2634,13 +2634,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2651,7 +2651,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2659,7 +2659,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2680,13 +2680,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2697,7 +2697,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2705,7 +2705,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2714,17 +2714,46 @@
       <c r="P42" s="25" t="n"/>
     </row>
     <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="21" t="n"/>
-      <c r="B43" s="21" t="n"/>
-      <c r="C43" s="21" t="n"/>
+      <c r="A43" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B43" s="21" t="inlineStr">
+        <is>
+          <t>Entrega de aplicativos - Front Door</t>
+        </is>
+      </c>
+      <c r="C43" s="21" t="inlineStr">
+        <is>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+        </is>
+      </c>
       <c r="D43" s="21" t="n"/>
-      <c r="E43" s="21" t="n"/>
+      <c r="E43" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="n"/>
+      <c r="H43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
-      <c r="L43" s="25" t="n"/>
+      <c r="L43" s="25" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M43" s="25" t="n"/>
       <c r="N43" s="25" t="n"/>
       <c r="O43" s="25" t="n"/>
@@ -6874,7 +6903,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F43" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F44" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - App Gateway</t>
+          <t>Gateway de aplicativo</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Load Balancer</t>
+          <t>Balanceador de Carga</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Load Balancer</t>
+          <t>Balanceador de Carga</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - App Gateway</t>
+          <t>Gateway de aplicativo</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - App Gateway</t>
+          <t>Gateway de aplicativo</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - App Gateway</t>
+          <t>Gateway de aplicativo</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - App Gateway</t>
+          <t>Gateway de aplicativo</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - App Gateway</t>
+          <t>Gateway de aplicativo</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Gerenciador de Tráfego</t>
+          <t>Gerenciador de Tráfego</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Load Balancer</t>
+          <t>Balanceador de Carga</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos - Front Door</t>
+          <t>Porta da Frente</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">

--- a/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduzir o risco de paralisações causadas pela renovação manual de certificados</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Implante seus perfis WAF para Front Door no modo 'Prevenção'.</t>
+          <t>Implante sua política de WAF para Front Door no modo 'Prevenção'.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões do conjunto de regras e obter proteção adicional.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Habilite o recurso de inspeção do corpo de solicitação habilitado na política WAF do Azure Front Door.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2421,7 +2421,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
+          <t>Habilite o conjunto de regras de proteção de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Use a versão mais recente do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego apenas de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t>Se você não está esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2760,263 +2760,727 @@
       <c r="P43" s="25" t="n"/>
     </row>
     <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="21" t="n"/>
-      <c r="B44" s="21" t="n"/>
-      <c r="C44" s="21" t="n"/>
+      <c r="A44" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B44" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C44" s="21" t="inlineStr">
+        <is>
+          <t>Habilitar o conjunto de regras de proteção de bot WAF do Gateway de Aplicativo do Azure As regras de bot detectam bots bons e ruins.</t>
+        </is>
+      </c>
       <c r="D44" s="21" t="n"/>
-      <c r="E44" s="21" t="n"/>
+      <c r="E44" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="n"/>
+      <c r="H44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/bot-protection</t>
+        </is>
+      </c>
       <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
-      <c r="L44" s="25" t="n"/>
+      <c r="L44" s="25" t="inlineStr">
+        <is>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+        </is>
+      </c>
       <c r="M44" s="25" t="n"/>
       <c r="N44" s="25" t="n"/>
       <c r="O44" s="25" t="n"/>
       <c r="P44" s="25" t="n"/>
     </row>
     <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="21" t="n"/>
-      <c r="B45" s="21" t="n"/>
-      <c r="C45" s="21" t="n"/>
+      <c r="A45" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B45" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C45" s="21" t="inlineStr">
+        <is>
+          <t>Habilite o recurso de inspeção do corpo de solicitação habilitado na política WAF do Gateway de Aplicativo do Azure.</t>
+        </is>
+      </c>
       <c r="D45" s="21" t="n"/>
-      <c r="E45" s="21" t="n"/>
+      <c r="E45" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="n"/>
+      <c r="H45" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
+        </is>
+      </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
-      <c r="L45" s="25" t="n"/>
+      <c r="L45" s="25" t="inlineStr">
+        <is>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+        </is>
+      </c>
       <c r="M45" s="25" t="n"/>
       <c r="N45" s="25" t="n"/>
       <c r="O45" s="25" t="n"/>
       <c r="P45" s="25" t="n"/>
     </row>
     <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="21" t="n"/>
-      <c r="B46" s="21" t="n"/>
-      <c r="C46" s="21" t="n"/>
+      <c r="A46" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B46" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C46" s="21" t="inlineStr">
+        <is>
+          <t>Ajuste o WAF do Gateway de Aplicativo do Azure para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+        </is>
+      </c>
       <c r="D46" s="21" t="n"/>
-      <c r="E46" s="21" t="n"/>
+      <c r="E46" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G46" s="21" t="n"/>
-      <c r="H46" s="15" t="n"/>
+      <c r="H46" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
-      <c r="L46" s="25" t="n"/>
+      <c r="L46" s="25" t="inlineStr">
+        <is>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+        </is>
+      </c>
       <c r="M46" s="25" t="n"/>
       <c r="N46" s="25" t="n"/>
       <c r="O46" s="25" t="n"/>
       <c r="P46" s="25" t="n"/>
     </row>
     <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="21" t="n"/>
-      <c r="C47" s="21" t="n"/>
+      <c r="A47" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B47" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C47" s="21" t="inlineStr">
+        <is>
+          <t>Implante sua política de WAF para o Application Gateway no modo 'Prevenção'.</t>
+        </is>
+      </c>
       <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="n"/>
+      <c r="H47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+        </is>
+      </c>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
-      <c r="L47" s="25" t="n"/>
+      <c r="L47" s="25" t="inlineStr">
+        <is>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+        </is>
+      </c>
       <c r="M47" s="25" t="n"/>
       <c r="N47" s="25" t="n"/>
       <c r="O47" s="25" t="n"/>
       <c r="P47" s="25" t="n"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="21" t="n"/>
-      <c r="C48" s="21" t="n"/>
+      <c r="A48" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B48" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C48" s="21" t="inlineStr">
+        <is>
+          <t>Adicione o limite de taxa ao WAF do Gateway de Aplicativo do Azure. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+        </is>
+      </c>
       <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="n"/>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview</t>
+        </is>
+      </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="n"/>
+      <c r="L48" s="25" t="inlineStr">
+        <is>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
+        </is>
+      </c>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
       <c r="P48" s="25" t="n"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="21" t="n"/>
-      <c r="B49" s="21" t="n"/>
-      <c r="C49" s="21" t="n"/>
+      <c r="A49" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B49" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C49" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Gateway de Aplicativo do Azure. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+        </is>
+      </c>
       <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview#rate-limiting-details</t>
+        </is>
+      </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="n"/>
+      <c r="L49" s="25" t="inlineStr">
+        <is>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
+        </is>
+      </c>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
       <c r="P49" s="25" t="n"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="21" t="n"/>
-      <c r="B50" s="21" t="n"/>
-      <c r="C50" s="21" t="n"/>
+      <c r="A50" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B50" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C50" s="21" t="inlineStr">
+        <is>
+          <t>Se você não está esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
+        </is>
+      </c>
       <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="n"/>
+      <c r="H50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#geo-filtering-best-practices</t>
+        </is>
+      </c>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="n"/>
+      <c r="L50" s="25" t="inlineStr">
+        <is>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
+        </is>
+      </c>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="n"/>
-      <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="n"/>
+      <c r="A51" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C51" s="21" t="inlineStr">
+        <is>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Gateway de Aplicativo do Azure. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+        </is>
+      </c>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="n"/>
+      <c r="H51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/geomatch-custom-rules</t>
+        </is>
+      </c>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="n"/>
+      <c r="L51" s="25" t="inlineStr">
+        <is>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
+        </is>
+      </c>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
       <c r="P51" s="25" t="n"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="21" t="n"/>
-      <c r="B52" s="21" t="n"/>
-      <c r="C52" s="21" t="n"/>
+      <c r="A52" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B52" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C52" s="21" t="inlineStr">
+        <is>
+          <t>Use a versão mais recente do conjunto de regras do WAF do Gateway de Aplicativo do Azure. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+        </is>
+      </c>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="n"/>
+      <c r="E52" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="n"/>
+      <c r="H52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
-      <c r="L52" s="25" t="n"/>
+      <c r="L52" s="25" t="inlineStr">
+        <is>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
+        </is>
+      </c>
       <c r="M52" s="25" t="n"/>
       <c r="N52" s="25" t="n"/>
       <c r="O52" s="25" t="n"/>
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="n"/>
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>Adicione configurações de diagnóstico para salvar seus logs WAF do Gateway de Aplicativo do Azure.</t>
+        </is>
+      </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="n"/>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="n"/>
+      <c r="L53" s="25" t="inlineStr">
+        <is>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
+        </is>
+      </c>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
       <c r="P53" s="25" t="n"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="21" t="n"/>
-      <c r="B54" s="21" t="n"/>
-      <c r="C54" s="21" t="n"/>
+      <c r="A54" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B54" s="21" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C54" s="21" t="inlineStr">
+        <is>
+          <t>Adicione configurações de diagnóstico para salvar seus logs do WAF do Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="n"/>
+      <c r="E54" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="n"/>
+      <c r="H54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="25" t="n"/>
+      <c r="L54" s="25" t="inlineStr">
+        <is>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+        </is>
+      </c>
       <c r="M54" s="25" t="n"/>
       <c r="N54" s="25" t="n"/>
       <c r="O54" s="25" t="n"/>
       <c r="P54" s="25" t="n"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="21" t="n"/>
-      <c r="B55" s="21" t="n"/>
-      <c r="C55" s="21" t="n"/>
+      <c r="A55" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B55" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C55" s="21" t="inlineStr">
+        <is>
+          <t>Envie logs do WAF do Gateway de Aplicativo do Azure para o Microsoft Sentinel.</t>
+        </is>
+      </c>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="n"/>
+      <c r="E55" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="n"/>
+      <c r="H55" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="25" t="n"/>
+      <c r="L55" s="25" t="inlineStr">
+        <is>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
+        </is>
+      </c>
       <c r="M55" s="25" t="n"/>
       <c r="N55" s="25" t="n"/>
       <c r="O55" s="25" t="n"/>
       <c r="P55" s="25" t="n"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="21" t="n"/>
-      <c r="B56" s="21" t="n"/>
-      <c r="C56" s="21" t="n"/>
+      <c r="A56" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B56" s="21" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C56" s="21" t="inlineStr">
+        <is>
+          <t>Envie logs do WAF do Azure Front Door para o Microsoft Sentinel.</t>
+        </is>
+      </c>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="n"/>
+      <c r="E56" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="n"/>
+      <c r="H56" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="25" t="n"/>
+      <c r="L56" s="25" t="inlineStr">
+        <is>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+        </is>
+      </c>
       <c r="M56" s="25" t="n"/>
       <c r="N56" s="25" t="n"/>
       <c r="O56" s="25" t="n"/>
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="n"/>
-      <c r="B57" s="21" t="n"/>
-      <c r="C57" s="21" t="n"/>
+      <c r="A57" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B57" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C57" s="21" t="inlineStr">
+        <is>
+          <t>Defina sua configuração do WAF do Gateway de Aplicativo do Azure como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
+        </is>
+      </c>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="n"/>
+      <c r="E57" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="n"/>
+      <c r="H57" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="25" t="n"/>
+      <c r="L57" s="25" t="inlineStr">
+        <is>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
+        </is>
+      </c>
       <c r="M57" s="25" t="n"/>
       <c r="N57" s="25" t="n"/>
       <c r="O57" s="25" t="n"/>
       <c r="P57" s="25" t="n"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="21" t="n"/>
-      <c r="B58" s="21" t="n"/>
-      <c r="C58" s="21" t="n"/>
+      <c r="A58" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B58" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C58" s="21" t="inlineStr">
+        <is>
+          <t>Use políticas de WAF em vez da configuração de WAF herdada.</t>
+        </is>
+      </c>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="n"/>
+      <c r="E58" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="n"/>
+      <c r="H58" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/policy-overview</t>
+        </is>
+      </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="25" t="n"/>
+      <c r="L58" s="25" t="inlineStr">
+        <is>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
+        </is>
+      </c>
       <c r="M58" s="25" t="n"/>
       <c r="N58" s="25" t="n"/>
       <c r="O58" s="25" t="n"/>
       <c r="P58" s="25" t="n"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="21" t="n"/>
-      <c r="B59" s="21" t="n"/>
-      <c r="C59" s="21" t="n"/>
+      <c r="A59" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B59" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C59" s="21" t="inlineStr">
+        <is>
+          <t>Filtre o tráfego de entrada nos back-ends para que eles só aceitem conexões da sub-rede do Application Gateway, por exemplo, com NSGs.</t>
+        </is>
+      </c>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="n"/>
+      <c r="E59" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="n"/>
+      <c r="H59" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-secured-hub-app-gateway</t>
+        </is>
+      </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
-      <c r="L59" s="25" t="n"/>
+      <c r="L59" s="25" t="inlineStr">
+        <is>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+        </is>
+      </c>
       <c r="M59" s="25" t="n"/>
       <c r="N59" s="25" t="n"/>
       <c r="O59" s="25" t="n"/>
@@ -6903,7 +7367,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F44" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
@@ -3487,16 +3487,45 @@
       <c r="P59" s="25" t="n"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="21" t="n"/>
-      <c r="B60" s="21" t="n"/>
-      <c r="C60" s="21" t="n"/>
+      <c r="A60" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B60" s="21" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C60" s="21" t="inlineStr">
+        <is>
+          <t>Certifique-se de que suas origens recebam apenas o tráfego de sua instância do Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="n"/>
+      <c r="E60" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="15" t="n"/>
+      <c r="H60" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/frontdoor/origin-security?tabs=app-service-functions</t>
+        </is>
+      </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
-      <c r="L60" s="25" t="n"/>
+      <c r="L60" s="25" t="inlineStr">
+        <is>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+        </is>
+      </c>
       <c r="M60" s="25" t="n"/>
       <c r="N60" s="25" t="n"/>
       <c r="O60" s="25" t="n"/>
@@ -7367,7 +7396,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F61" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
@@ -3487,65 +3487,181 @@
       <c r="P59" s="25" t="n"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="21" t="n"/>
-      <c r="B60" s="21" t="n"/>
-      <c r="C60" s="21" t="n"/>
+      <c r="A60" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B60" s="21" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C60" s="21" t="inlineStr">
+        <is>
+          <t>Certifique-se de que suas origens recebam apenas o tráfego de sua instância do Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="n"/>
+      <c r="E60" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="15" t="n"/>
+      <c r="H60" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/origin-security?tabs=app-service-functions</t>
+        </is>
+      </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
-      <c r="L60" s="25" t="n"/>
+      <c r="L60" s="25" t="inlineStr">
+        <is>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+        </is>
+      </c>
       <c r="M60" s="25" t="n"/>
       <c r="N60" s="25" t="n"/>
       <c r="O60" s="25" t="n"/>
       <c r="P60" s="25" t="n"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="21" t="n"/>
-      <c r="B61" s="21" t="n"/>
-      <c r="C61" s="21" t="n"/>
+      <c r="A61" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B61" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C61" s="21" t="inlineStr">
+        <is>
+          <t>Você deve criptografar o tráfego para os servidores de back-end.</t>
+        </is>
+      </c>
       <c r="D61" s="21" t="n"/>
-      <c r="E61" s="21" t="n"/>
+      <c r="E61" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="n"/>
+      <c r="H61" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/ssl-overview</t>
+        </is>
+      </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
-      <c r="L61" s="25" t="n"/>
+      <c r="L61" s="25" t="inlineStr">
+        <is>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
+        </is>
+      </c>
       <c r="M61" s="25" t="n"/>
       <c r="N61" s="25" t="n"/>
       <c r="O61" s="25" t="n"/>
       <c r="P61" s="25" t="n"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="21" t="n"/>
-      <c r="B62" s="21" t="n"/>
-      <c r="C62" s="21" t="n"/>
+      <c r="A62" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B62" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C62" s="21" t="inlineStr">
+        <is>
+          <t>Você deve usar um Web Application Firewall.</t>
+        </is>
+      </c>
       <c r="D62" s="21" t="n"/>
-      <c r="E62" s="21" t="n"/>
+      <c r="E62" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="n"/>
+      <c r="H62" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/overview</t>
+        </is>
+      </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
-      <c r="L62" s="25" t="n"/>
+      <c r="L62" s="25" t="inlineStr">
+        <is>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
+        </is>
+      </c>
       <c r="M62" s="25" t="n"/>
       <c r="N62" s="25" t="n"/>
       <c r="O62" s="25" t="n"/>
       <c r="P62" s="25" t="n"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
-      <c r="A63" s="21" t="n"/>
-      <c r="B63" s="21" t="n"/>
-      <c r="C63" s="21" t="n"/>
+      <c r="A63" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B63" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C63" s="21" t="inlineStr">
+        <is>
+          <t>Redirecionar HTTP para HTTPS</t>
+        </is>
+      </c>
       <c r="D63" s="21" t="n"/>
-      <c r="E63" s="21" t="n"/>
+      <c r="E63" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="n"/>
+      <c r="H63" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/redirect-overview</t>
+        </is>
+      </c>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
-      <c r="L63" s="25" t="n"/>
+      <c r="L63" s="25" t="inlineStr">
+        <is>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
+        </is>
+      </c>
       <c r="M63" s="25" t="n"/>
       <c r="N63" s="25" t="n"/>
       <c r="O63" s="25" t="n"/>
@@ -7367,7 +7483,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
@@ -3668,152 +3668,413 @@
       <c r="P63" s="25" t="n"/>
     </row>
     <row r="64" ht="16.5" customHeight="1">
-      <c r="A64" s="21" t="n"/>
-      <c r="B64" s="21" t="n"/>
-      <c r="C64" s="21" t="n"/>
+      <c r="A64" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B64" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C64" s="21" t="inlineStr">
+        <is>
+          <t>Usar cookies gerenciados por gateway para direcionar o tráfego de uma sessão de usuário para o mesmo servidor para processamento</t>
+        </is>
+      </c>
       <c r="D64" s="21" t="n"/>
-      <c r="E64" s="21" t="n"/>
+      <c r="E64" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G64" s="21" t="n"/>
-      <c r="H64" s="15" t="n"/>
+      <c r="H64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/how-application-gateway-works#modifications-to-the-request</t>
+        </is>
+      </c>
       <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
-      <c r="L64" s="25" t="n"/>
+      <c r="L64" s="25" t="inlineStr">
+        <is>
+          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
+        </is>
+      </c>
       <c r="M64" s="25" t="n"/>
       <c r="N64" s="25" t="n"/>
       <c r="O64" s="25" t="n"/>
       <c r="P64" s="25" t="n"/>
     </row>
     <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="21" t="n"/>
-      <c r="B65" s="21" t="n"/>
-      <c r="C65" s="21" t="n"/>
+      <c r="A65" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B65" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C65" s="21" t="inlineStr">
+        <is>
+          <t>Habilite a drenagem de conexão durante as atualizações de serviço planejadas para evitar a perda de conexão com membrs existentes do pool de back-end</t>
+        </is>
+      </c>
       <c r="D65" s="21" t="n"/>
-      <c r="E65" s="21" t="n"/>
+      <c r="E65" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G65" s="21" t="n"/>
-      <c r="H65" s="15" t="n"/>
+      <c r="H65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-http-settings</t>
+        </is>
+      </c>
       <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
-      <c r="L65" s="25" t="n"/>
+      <c r="L65" s="25" t="inlineStr">
+        <is>
+          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
+        </is>
+      </c>
       <c r="M65" s="25" t="n"/>
       <c r="N65" s="25" t="n"/>
       <c r="O65" s="25" t="n"/>
       <c r="P65" s="25" t="n"/>
     </row>
     <row r="66" ht="16.5" customHeight="1">
-      <c r="A66" s="21" t="n"/>
-      <c r="B66" s="21" t="n"/>
-      <c r="C66" s="21" t="n"/>
+      <c r="A66" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B66" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C66" s="21" t="inlineStr">
+        <is>
+          <t>Criar páginas de erro personalizadas para exibir uma experiência de usuário personalizada</t>
+        </is>
+      </c>
       <c r="D66" s="21" t="n"/>
-      <c r="E66" s="21" t="n"/>
+      <c r="E66" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="n"/>
+      <c r="H66" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/custom-error</t>
+        </is>
+      </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
-      <c r="L66" s="25" t="n"/>
+      <c r="L66" s="25" t="inlineStr">
+        <is>
+          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
+        </is>
+      </c>
       <c r="M66" s="25" t="n"/>
       <c r="N66" s="25" t="n"/>
       <c r="O66" s="25" t="n"/>
       <c r="P66" s="25" t="n"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="21" t="n"/>
-      <c r="B67" s="21" t="n"/>
-      <c r="C67" s="21" t="n"/>
+      <c r="A67" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B67" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C67" s="21" t="inlineStr">
+        <is>
+          <t>Edite solicitações HTTP e cabeçalhos de resposta para facilitar o roteamento e a troca de informações entre o cliente e o servidor</t>
+        </is>
+      </c>
       <c r="D67" s="21" t="n"/>
-      <c r="E67" s="21" t="n"/>
+      <c r="E67" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="n"/>
+      <c r="H67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/rewrite-http-headers-url</t>
+        </is>
+      </c>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
-      <c r="L67" s="25" t="n"/>
+      <c r="L67" s="25" t="inlineStr">
+        <is>
+          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
+        </is>
+      </c>
       <c r="M67" s="25" t="n"/>
       <c r="N67" s="25" t="n"/>
       <c r="O67" s="25" t="n"/>
       <c r="P67" s="25" t="n"/>
     </row>
     <row r="68" ht="16.5" customHeight="1">
-      <c r="A68" s="21" t="n"/>
-      <c r="B68" s="21" t="n"/>
-      <c r="C68" s="21" t="n"/>
+      <c r="A68" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B68" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C68" s="21" t="inlineStr">
+        <is>
+          <t>Configure o Front Door para otimizar o roteamento de tráfego global da Web e o desempenho do usuário final de nível superior e a confiabilidade por meio de failover global rápido</t>
+        </is>
+      </c>
       <c r="D68" s="21" t="n"/>
-      <c r="E68" s="21" t="n"/>
+      <c r="E68" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="n"/>
+      <c r="H68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+        </is>
+      </c>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
-      <c r="L68" s="25" t="n"/>
+      <c r="L68" s="25" t="inlineStr">
+        <is>
+          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
+        </is>
+      </c>
       <c r="M68" s="25" t="n"/>
       <c r="N68" s="25" t="n"/>
       <c r="O68" s="25" t="n"/>
       <c r="P68" s="25" t="n"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="21" t="n"/>
-      <c r="B69" s="21" t="n"/>
-      <c r="C69" s="21" t="n"/>
+      <c r="A69" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B69" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C69" s="21" t="inlineStr">
+        <is>
+          <t>Usar balanceamento de carga da camada de transporte</t>
+        </is>
+      </c>
       <c r="D69" s="21" t="n"/>
-      <c r="E69" s="21" t="n"/>
+      <c r="E69" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="n"/>
+      <c r="H69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
-      <c r="L69" s="25" t="n"/>
+      <c r="L69" s="25" t="inlineStr">
+        <is>
+          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
+        </is>
+      </c>
       <c r="M69" s="25" t="n"/>
       <c r="N69" s="25" t="n"/>
       <c r="O69" s="25" t="n"/>
       <c r="P69" s="25" t="n"/>
     </row>
     <row r="70" ht="16.5" customHeight="1">
-      <c r="A70" s="21" t="n"/>
-      <c r="B70" s="21" t="n"/>
-      <c r="C70" s="21" t="n"/>
+      <c r="A70" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B70" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C70" s="21" t="inlineStr">
+        <is>
+          <t>Configurar o roteamento com base no host ou nome de domínio para vários aplicativos Web em um único gateway</t>
+        </is>
+      </c>
       <c r="D70" s="21" t="n"/>
-      <c r="E70" s="21" t="n"/>
+      <c r="E70" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="n"/>
+      <c r="H70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/multiple-site-overview</t>
+        </is>
+      </c>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
-      <c r="L70" s="25" t="n"/>
+      <c r="L70" s="25" t="inlineStr">
+        <is>
+          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
+        </is>
+      </c>
       <c r="M70" s="25" t="n"/>
       <c r="N70" s="25" t="n"/>
       <c r="O70" s="25" t="n"/>
       <c r="P70" s="25" t="n"/>
     </row>
     <row r="71" ht="16.5" customHeight="1">
-      <c r="A71" s="21" t="n"/>
-      <c r="B71" s="21" t="n"/>
-      <c r="C71" s="21" t="n"/>
+      <c r="A71" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B71" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C71" s="21" t="inlineStr">
+        <is>
+          <t>Centralize o gerenciamento de certificados SSL para reduzir a sobrecarga de criptografia e descriptografia de um farm de servidores back-end</t>
+        </is>
+      </c>
       <c r="D71" s="21" t="n"/>
-      <c r="E71" s="21" t="n"/>
+      <c r="E71" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G71" s="21" t="n"/>
-      <c r="H71" s="15" t="n"/>
+      <c r="H71" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/create-ssl-portal</t>
+        </is>
+      </c>
       <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
-      <c r="L71" s="25" t="n"/>
+      <c r="L71" s="25" t="inlineStr">
+        <is>
+          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
+        </is>
+      </c>
       <c r="M71" s="25" t="n"/>
       <c r="N71" s="25" t="n"/>
       <c r="O71" s="25" t="n"/>
       <c r="P71" s="25" t="n"/>
     </row>
     <row r="72" ht="16.5" customHeight="1">
-      <c r="A72" s="21" t="n"/>
-      <c r="B72" s="21" t="n"/>
-      <c r="C72" s="21" t="n"/>
+      <c r="A72" s="21" t="inlineStr">
+        <is>
+          <t>Topologia de rede e conectividade</t>
+        </is>
+      </c>
+      <c r="B72" s="21" t="inlineStr">
+        <is>
+          <t>Gateway de aplicativo</t>
+        </is>
+      </c>
+      <c r="C72" s="21" t="inlineStr">
+        <is>
+          <t>Usar o Application Gateway para suporte nativo para protocolos WebSocket e HTTP/2</t>
+        </is>
+      </c>
       <c r="D72" s="21" t="n"/>
-      <c r="E72" s="21" t="n"/>
+      <c r="E72" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="n"/>
+      <c r="H72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-websocket</t>
+        </is>
+      </c>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
-      <c r="L72" s="25" t="n"/>
+      <c r="L72" s="25" t="inlineStr">
+        <is>
+          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
+        </is>
+      </c>
       <c r="M72" s="25" t="n"/>
       <c r="N72" s="25" t="n"/>
       <c r="O72" s="25" t="n"/>
@@ -7483,7 +7744,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F73" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
@@ -1059,17 +1059,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduzir o risco de paralisações causadas pela renovação manual de certificados</t>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão do certificado 'Mais recente'. Reduza o risco de interrupções causadas pela renovação manual de certificados</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1105,7 +1105,7 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Execute a entrega de aplicativos dentro das zonas de aterrissagem para aplicativos internos (corp) e externos (online).</t>
+          <t>Execute a entrega de aplicativos em zonas de destino para aplicativos internos (corporativos) e externos (online).</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1155,17 +1155,17 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você está usando o SKU do Application Gateway v2</t>
+          <t>Verifique se você está usando o SKU do Gateway de Aplicativo v2</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1205,17 +1205,17 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>Balanceador de Carga</t>
+          <t>Balanceador de carga</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU padrão para seus Balanceadores de Carga do Azure</t>
+          <t>Verifique se você está usando o SKU Standard para seus Azure Load Balancers</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1251,17 +1251,17 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>Balanceador de Carga</t>
+          <t>Balanceador de carga</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os endereços IP de front-end dos Load Balancers são redundantes por zona (a menos que você precise de frontends zonais).</t>
+          <t>Verifique se os endereços IP de front-end dos Load Balancers têm redundância de zona (a menos que você precise de front-ends zonais).</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1297,17 +1297,17 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Seus Application Gateways v2 devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /24</t>
+          <t>Seus Gateways de Aplicativo v2 devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /24</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1347,22 +1347,22 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para fazer proxy de conexões HTTP(S) de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
+          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para proxy de conexões HTTP(S) de entrada na rede virtual da zona de destino e com os aplicativos que eles estão protegendo.</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>A administração de proxies reversos em geral e do WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura que o aplicativo. Centralizar o Application Gateway e o WAF na assinatura de conectividade pode ser OK se for gerenciado por uma única equipe.</t>
+          <t>A administração de proxies reversos em geral e WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura que o aplicativo. Centralizar o Gateway de Aplicativo e o WAF na assinatura de conectividade pode ser OK se ele for gerenciado por uma única equipe.</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
@@ -1401,17 +1401,17 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
+          <t>Use uma rede DDoS ou planos de proteção de IP para todos os endereços IP públicos em zonas de destino do aplicativo.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1451,17 +1451,17 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Configure o dimensionamento automático com uma quantidade mínima de duas instâncias.</t>
+          <t>Configure o dimensionamento automático com uma quantidade mínima de instâncias de duas.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1501,17 +1501,17 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Implantar o Application Gateway em zonas de disponibilidade</t>
+          <t>Implantar o Gateway de Aplicativo em Zonas de Disponibilidade</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1551,17 +1551,17 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
+          <t>Use o Azure Front Door com políticas do WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1601,7 +1601,7 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente do Front Door.</t>
+          <t>Ao usar o Front Door e o Gateway de Aplicativo para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Front Door.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1651,7 +1651,7 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo de ID do Microsoft Entra foi considerado uma alternativa à Área de Trabalho Virtual (AVD) do Azure?</t>
+          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo de ID do Microsoft Entra foi considerado como uma alternativa à AVD (Área de Trabalho Virtual) do Azure?</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1751,7 +1751,7 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Microsoft Entra ID Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
+          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere usar o Proxy de Aplicativo de ID do Microsoft Entra para fornecer aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1801,17 +1801,17 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Implante sua política de WAF para Front Door no modo 'Prevenção'.</t>
+          <t>Implante sua política de WAF para o Front Door no modo 'Prevenção' para que o Firewall de Aplicativo Web tome as medidas apropriadas para permitir ou negar o tráfego.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1847,12 +1847,12 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
@@ -1893,12 +1893,12 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
@@ -1939,17 +1939,17 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Desabilite os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
+          <t>Desabilite as investigações de integridade quando houver apenas uma origem em um grupo de origens do Azure Front Door.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1985,17 +1985,17 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do seu aplicativo.</t>
+          <t>Selecione pontos de extremidade de investigação de integridade boa para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do aplicativo.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2030,17 +2030,17 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Use testes de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
+          <t>Use investigações de integridade HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2075,17 +2075,17 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Balanceador de Carga</t>
+          <t>Balanceador de carga</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhor escalabilidade do SNAT</t>
+          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhorar a escalabilidade SNAT</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2120,17 +2120,17 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2165,17 +2165,17 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
+          <t>Defina a configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2210,12 +2210,12 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
@@ -2256,17 +2256,17 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Use o redirecionamento de HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2302,17 +2302,17 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
+          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma variedade de ataques.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2348,17 +2348,17 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho configurando o WAF no modo de detecção para reduzir e corrigir detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2394,17 +2394,17 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Habilite o recurso de inspeção do corpo de solicitação habilitado na política WAF do Azure Front Door.</t>
+          <t>Habilite o recurso de inspeção do corpo da solicitação habilitado na política do WAF do Azure Front Door.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2440,12 +2440,12 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
@@ -2486,17 +2486,17 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Habilite o conjunto de regras de proteção de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
+          <t>Habilite o conjunto de regras de proteção contra bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2532,17 +2532,17 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Use a versão mais recente do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Use a versão mais recente do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário de ameaças atual.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2578,17 +2578,17 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Adicione a limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia os clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2624,17 +2624,17 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Os limites de limite de taxa altos evitam o bloqueio do tráfego legítimo, ao mesmo tempo em que fornecem proteção contra números extremamente altos de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2670,17 +2670,17 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Se você não está esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
+          <t>Se você não estiver esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2716,12 +2716,12 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
@@ -2762,17 +2762,17 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Habilitar o conjunto de regras de proteção de bot WAF do Gateway de Aplicativo do Azure As regras de bot detectam bots bons e ruins.</t>
+          <t>Habilite o conjunto de regras de proteção contra bot do WAF do Gateway de Aplicativo do Azure. As regras de bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2808,17 +2808,17 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Habilite o recurso de inspeção do corpo de solicitação habilitado na política WAF do Gateway de Aplicativo do Azure.</t>
+          <t>Habilite o recurso de inspeção do corpo da solicitação habilitado na política do WAF do Gateway de Aplicativo do Azure.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2853,17 +2853,17 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Gateway de Aplicativo do Azure para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Ajuste o WAF do Gateway de Aplicativo do Azure no modo de detecção para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2899,17 +2899,17 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Implante sua política de WAF para o Application Gateway no modo 'Prevenção'.</t>
+          <t>Implante sua política de WAF para Gateway de Aplicativo no modo 'Prevenção'.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2945,17 +2945,17 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Adicione o limite de taxa ao WAF do Gateway de Aplicativo do Azure. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Adicione a limitação de taxa ao WAF do Gateway de Aplicativo do Azure. A limitação de taxa bloqueia os clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2990,17 +2990,17 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Gateway de Aplicativo do Azure. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Gateway de Aplicativo do Azure. Os limites de limite de taxa altos evitam o bloqueio do tráfego legítimo, ao mesmo tempo em que fornecem proteção contra números extremamente altos de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3035,17 +3035,17 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Se você não está esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
+          <t>Se você não estiver esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3081,12 +3081,12 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
@@ -3127,17 +3127,17 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Use a versão mais recente do conjunto de regras do WAF do Gateway de Aplicativo do Azure. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Use a versão mais recente do conjunto de regras do WAF do Gateway de Aplicativo do Azure. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário de ameaças atual.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3173,17 +3173,17 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar seus logs WAF do Gateway de Aplicativo do Azure.</t>
+          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Gateway de Aplicativo do Azure.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3218,17 +3218,17 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar seus logs do WAF do Azure Front Door.</t>
+          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3264,12 +3264,12 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
@@ -3309,12 +3309,12 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
@@ -3354,17 +3354,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Gateway de Aplicativo do Azure como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
+          <t>Defina a configuração do WAF do Gateway de Aplicativo do Azure como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3399,17 +3399,17 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Use políticas de WAF em vez da configuração de WAF herdada.</t>
+          <t>Use as Políticas do WAF em vez da configuração herdada do WAF.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3444,17 +3444,17 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Filtre o tráfego de entrada nos back-ends para que eles só aceitem conexões da sub-rede do Application Gateway, por exemplo, com NSGs.</t>
+          <t>Filtre o tráfego de entrada nos back-ends para que eles aceitem apenas conexões da sub-rede do Gateway de Aplicativo, por exemplo, com NSGs.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3489,17 +3489,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas origens recebam apenas o tráfego de sua instância do Azure Front Door.</t>
+          <t>Verifique se suas origens recebem apenas o tráfego da instância do Azure Front Door.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3534,12 +3534,12 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
@@ -3579,12 +3579,12 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
@@ -3624,12 +3624,12 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
@@ -3670,17 +3670,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Usar cookies gerenciados por gateway para direcionar o tráfego de uma sessão de usuário para o mesmo servidor para processamento</t>
+          <t>Use cookies gerenciados por gateway para direcionar o tráfego de uma sessão de usuário para o mesmo servidor para processamento</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3716,17 +3716,17 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Habilite a drenagem de conexão durante as atualizações de serviço planejadas para evitar a perda de conexão com membrs existentes do pool de back-end</t>
+          <t>Habilitar a drenagem de conexão durante atualizações de serviço planejadas para evitar a perda de conexão para membros existentes do pool de back-end</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3762,17 +3762,17 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Criar páginas de erro personalizadas para exibir uma experiência de usuário personalizada</t>
+          <t>Crie páginas de erro personalizadas para exibir uma experiência de usuário personalizada</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3807,12 +3807,12 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
@@ -3853,17 +3853,17 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Configure o Front Door para otimizar o roteamento de tráfego global da Web e o desempenho do usuário final de nível superior e a confiabilidade por meio de failover global rápido</t>
+          <t>Configure o Front Door para otimizar o roteamento de tráfego da Web global e o desempenho e a confiabilidade do usuário final de nível superior por meio de failover global rápido</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3899,17 +3899,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Usar balanceamento de carga da camada de transporte</t>
+          <t>Usar o balanceamento de carga da camada de transporte</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3945,17 +3945,17 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Configurar o roteamento com base no host ou nome de domínio para vários aplicativos Web em um único gateway</t>
+          <t>Configurar o roteamento com base no host ou no nome de domínio para vários aplicativos Web em um único gateway</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3991,17 +3991,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Centralize o gerenciamento de certificados SSL para reduzir a sobrecarga de criptografia e descriptografia de um farm de servidores back-end</t>
+          <t>Centralize o gerenciamento de certificados SSL para reduzir a sobrecarga de criptografia e descriptografia de um farm de servidores de back-end</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4037,17 +4037,17 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Gateway de aplicativo</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Usar o Application Gateway para suporte nativo para protocolos WebSocket e HTTP/2</t>
+          <t>Usar o Gateway de Aplicativo para obter suporte nativo para protocolos WebSocket e HTTP/2</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Essa verificação foi verificada e não há outros itens de ação associados a ela</t>
+          <t>Essa verificação foi verificada e não há mais itens de ação associados a ela</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Não aplicável ao projeto atual</t>
+          <t>Não aplicável para o projeto atual</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">

--- a/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
@@ -1064,12 +1064,12 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão do certificado 'Mais recente'. Reduza o risco de interrupções causadas pela renovação manual de certificados</t>
+          <t>Execute a entrega de aplicativos em zonas de destino para aplicativos internos (corporativos) e externos (online).</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,15 +1086,19 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
-        </is>
-      </c>
-      <c r="I8" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>b71ca41b-3a80-48f3-a6cd-22cdf197c1cf</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1110,12 +1114,12 @@
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Execute a entrega de aplicativos em zonas de destino para aplicativos internos (corporativos) e externos (online).</t>
+          <t>Verifique se você está usando o SKU do Gateway de Aplicativo v2</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,7 +1136,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -1144,7 +1148,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>b71ca41b-3a80-48f3-a6cd-22cdf197c1cf</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1160,12 +1164,12 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Gateway de Aplicativo</t>
+          <t>Balanceador de carga</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você está usando o SKU do Gateway de Aplicativo v2</t>
+          <t>Verifique se você está usando o SKU Standard para seus Azure Load Balancers</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1182,19 +1186,15 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você está usando o SKU Standard para seus Azure Load Balancers</t>
+          <t>Verifique se os endereços IP de front-end dos Load Balancers têm redundância de zona (a menos que você precise de front-ends zonais).</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1232,7 +1232,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-standard-availability-zones</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1240,7 +1240,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>Balanceador de carga</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os endereços IP de front-end dos Load Balancers têm redundância de zona (a menos que você precise de front-ends zonais).</t>
+          <t>Seus Gateways de Aplicativo v2 devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /24</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1278,15 +1278,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-standard-availability-zones</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1307,10 +1311,14 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Seus Gateways de Aplicativo v2 devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /24</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="n"/>
+          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para proxy de conexões HTTP(S) de entrada na rede virtual da zona de destino e com os aplicativos que eles estão protegendo.</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="inlineStr">
+        <is>
+          <t>A administração de proxies reversos em geral e WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura que o aplicativo. Centralizar o Gateway de Aplicativo e o WAF na assinatura de conectividade pode ser OK se ele for gerenciado por uma única equipe.</t>
+        </is>
+      </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1324,7 +1332,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
@@ -1336,7 +1344,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1357,14 +1365,10 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para proxy de conexões HTTP(S) de entrada na rede virtual da zona de destino e com os aplicativos que eles estão protegendo.</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="inlineStr">
-        <is>
-          <t>A administração de proxies reversos em geral e WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura que o aplicativo. Centralizar o Gateway de Aplicativo e o WAF na assinatura de conectividade pode ser OK se ele for gerenciado por uma única equipe.</t>
-        </is>
-      </c>
+          <t>Use uma rede DDoS ou planos de proteção de IP para todos os endereços IP públicos em zonas de destino do aplicativo.</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1383,14 +1387,14 @@
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1411,7 +1415,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção de IP para todos os endereços IP públicos em zonas de destino do aplicativo.</t>
+          <t>Configure o dimensionamento automático com uma quantidade mínima de instâncias de duas.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1428,19 +1432,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1461,7 +1465,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Configure o dimensionamento automático com uma quantidade mínima de instâncias de duas.</t>
+          <t>Implantar o Gateway de Aplicativo em Zonas de Disponibilidade</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1478,7 +1482,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
@@ -1490,7 +1494,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1506,12 +1510,12 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Gateway de Aplicativo</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Implantar o Gateway de Aplicativo em Zonas de Disponibilidade</t>
+          <t>Ao usar o Front Door e o Gateway de Aplicativo para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Front Door.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1528,19 +1532,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1556,18 +1560,18 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gerenciador de Tráfego</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com políticas do WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
+          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1590,7 +1594,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1611,13 +1615,13 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Gateway de Aplicativo para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Front Door.</t>
+          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo de ID do Microsoft Entra foi considerado como uma alternativa à AVD (Área de Trabalho Virtual) do Azure?</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1628,19 +1632,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1656,18 +1660,18 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Gerenciador de Tráfego</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
+          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere usar o Proxy de Aplicativo de ID do Microsoft Entra para fornecer aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1678,19 +1682,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1706,18 +1710,18 @@
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Balanceador de carga</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo de ID do Microsoft Entra foi considerado como uma alternativa à AVD (Área de Trabalho Virtual) do Azure?</t>
+          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhorar a escalabilidade SNAT</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1728,19 +1732,15 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1756,18 +1756,18 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere usar o Proxy de Aplicativo de ID do Microsoft Entra para fornecer aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
+          <t>Habilite o conjunto de regras de proteção contra bot do WAF do Gateway de Aplicativo do Azure. As regras de bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1778,19 +1778,15 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I22" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/bot-protection</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1806,12 +1802,12 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Implante sua política de WAF para o Front Door no modo 'Prevenção' para que o Firewall de Aplicativo Web tome as medidas apropriadas para permitir ou negar o tráfego.</t>
+          <t>Verifique se o recurso de inspeção do corpo da solicitação está habilitado na política WAF do Gateway de Aplicativo do Azure.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1828,7 +1824,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1836,7 +1832,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1852,12 +1848,12 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Evite combinar o Gerenciador de Tráfego do Azure e o Azure Front Door.</t>
+          <t>Ajuste o WAF do Gateway de Aplicativo do Azure no modo de detecção para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1874,7 +1870,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1882,7 +1878,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1898,12 +1894,12 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+          <t>Implante sua política de WAF para Gateway de Aplicativo no modo 'Prevenção'.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1920,7 +1916,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/policy-overview?source=recommendations</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1928,7 +1924,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1944,18 +1940,18 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Desabilite as investigações de integridade quando houver apenas uma origem em um grupo de origens do Azure Front Door.</t>
+          <t>Adicione a limitação de taxa ao WAF do Gateway de Aplicativo do Azure. A limitação de taxa bloqueia os clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1966,7 +1962,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1974,7 +1970,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1990,12 +1986,12 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Selecione pontos de extremidade de investigação de integridade boa para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do aplicativo.</t>
+          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Gateway de Aplicativo do Azure. Os limites de limite de taxa altos evitam o bloqueio do tráfego legítimo, ao mesmo tempo em que fornecem proteção contra números extremamente altos de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2012,14 +2008,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview#rate-limiting-details</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2035,12 +2031,12 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Use investigações de integridade HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
+          <t>Se você não estiver esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2057,14 +2053,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#geo-filtering-best-practices</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2080,18 +2076,18 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Balanceador de carga</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhorar a escalabilidade SNAT</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Gateway de Aplicativo do Azure. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2102,14 +2098,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/geomatch-custom-rules</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2125,18 +2121,18 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
+          <t>Use a versão mais recente do conjunto de regras do WAF do Gateway de Aplicativo do Azure. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário de ameaças atual.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2147,14 +2143,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2170,12 +2166,12 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Defina a configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
+          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Gateway de Aplicativo do Azure.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2192,14 +2188,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2215,18 +2211,18 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
+          <t>Envie logs do WAF do Gateway de Aplicativo do Azure para o Microsoft Sentinel.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2237,7 +2233,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2245,7 +2241,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2261,12 +2257,12 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Use o redirecionamento de HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Defina a configuração do WAF do Gateway de Aplicativo do Azure como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2283,7 +2279,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2291,7 +2287,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2307,18 +2303,18 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma variedade de ataques.</t>
+          <t>Use as Políticas do WAF em vez da configuração herdada do WAF.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2329,7 +2325,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/policy-overview</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2337,7 +2333,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2353,18 +2349,18 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho configurando o WAF no modo de detecção para reduzir e corrigir detecções de falsos positivos.</t>
+          <t>Filtre o tráfego de entrada nos back-ends para que eles aceitem apenas conexões da sub-rede do Gateway de Aplicativo, por exemplo, com NSGs.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2375,7 +2371,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-secured-hub-app-gateway</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2383,7 +2379,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2399,12 +2395,12 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Habilite o recurso de inspeção do corpo da solicitação habilitado na política do WAF do Azure Front Door.</t>
+          <t>Você deve criptografar o tráfego para os servidores de back-end.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2421,7 +2417,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2429,7 +2425,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2445,12 +2441,12 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Você deve usar um Web Application Firewall.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2467,7 +2463,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2475,7 +2471,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2491,18 +2487,18 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Habilite o conjunto de regras de proteção contra bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
+          <t>Redirecionar HTTP para HTTPS</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2513,7 +2509,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/redirect-overview</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2521,7 +2517,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2537,12 +2533,12 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Use a versão mais recente do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário de ameaças atual.</t>
+          <t>Use cookies gerenciados por gateway para direcionar o tráfego de uma sessão de usuário para o mesmo servidor para processamento</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2559,7 +2555,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/how-application-gateway-works#modifications-to-the-request</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2567,7 +2563,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2583,18 +2579,18 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Adicione a limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia os clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Habilitar a drenagem de conexão durante atualizações de serviço planejadas para evitar a perda de conexão para membros existentes do pool de back-end</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2605,7 +2601,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-http-settings</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2613,7 +2609,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2629,18 +2625,18 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Os limites de limite de taxa altos evitam o bloqueio do tráfego legítimo, ao mesmo tempo em que fornecem proteção contra números extremamente altos de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Crie páginas de erro personalizadas para exibir uma experiência de usuário personalizada</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2651,7 +2647,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/custom-error</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2659,7 +2655,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2675,18 +2671,18 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Se você não estiver esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
+          <t>Edite solicitações HTTP e cabeçalhos de resposta para facilitar o roteamento e a troca de informações entre o cliente e o servidor</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2697,7 +2693,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/rewrite-http-headers-url</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2705,7 +2701,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2721,12 +2717,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Gateway de Aplicativo</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Configure o Front Door para otimizar o roteamento de tráfego da Web global e o desempenho e a confiabilidade do usuário final de nível superior por meio de failover global rápido</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2743,7 +2739,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2751,7 +2747,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2772,13 +2768,13 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Habilite o conjunto de regras de proteção contra bot do WAF do Gateway de Aplicativo do Azure. As regras de bot detectam bots bons e ruins.</t>
+          <t>Usar o balanceamento de carga da camada de transporte</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2789,7 +2785,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/bot-protection</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2797,7 +2793,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2818,13 +2814,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Habilite o recurso de inspeção do corpo da solicitação habilitado na política do WAF do Gateway de Aplicativo do Azure.</t>
+          <t>Configurar o roteamento com base no host ou no nome de domínio para vários aplicativos Web em um único gateway</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2835,14 +2831,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/multiple-site-overview</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2863,13 +2859,13 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Gateway de Aplicativo do Azure no modo de detecção para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Centralize o gerenciamento de certificados SSL para reduzir a sobrecarga de criptografia e descriptografia de um farm de servidores de back-end</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2880,7 +2876,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/create-ssl-portal</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2888,7 +2884,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2909,13 +2905,13 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Implante sua política de WAF para Gateway de Aplicativo no modo 'Prevenção'.</t>
+          <t>Usar o Gateway de Aplicativo para obter suporte nativo para protocolos WebSocket e HTTP/2</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2926,7 +2922,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-websocket</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -2934,7 +2930,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2943,1138 +2939,413 @@
       <c r="P47" s="25" t="n"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B48" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C48" s="21" t="inlineStr">
-        <is>
-          <t>Adicione a limitação de taxa ao WAF do Gateway de Aplicativo do Azure. A limitação de taxa bloqueia os clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
-        </is>
-      </c>
+      <c r="A48" s="21" t="n"/>
+      <c r="B48" s="21" t="n"/>
+      <c r="C48" s="21" t="n"/>
       <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E48" s="21" t="n"/>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview</t>
-        </is>
-      </c>
+      <c r="H48" s="15" t="n"/>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="inlineStr">
-        <is>
-          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
-        </is>
-      </c>
+      <c r="L48" s="25" t="n"/>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
       <c r="P48" s="25" t="n"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B49" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C49" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Gateway de Aplicativo do Azure. Os limites de limite de taxa altos evitam o bloqueio do tráfego legítimo, ao mesmo tempo em que fornecem proteção contra números extremamente altos de solicitações que podem sobrecarregar sua infraestrutura. </t>
-        </is>
-      </c>
+      <c r="A49" s="21" t="n"/>
+      <c r="B49" s="21" t="n"/>
+      <c r="C49" s="21" t="n"/>
       <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E49" s="21" t="n"/>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview#rate-limiting-details</t>
-        </is>
-      </c>
+      <c r="H49" s="15" t="n"/>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="inlineStr">
-        <is>
-          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
-        </is>
-      </c>
+      <c r="L49" s="25" t="n"/>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
       <c r="P49" s="25" t="n"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B50" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C50" s="21" t="inlineStr">
-        <is>
-          <t>Se você não estiver esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
-        </is>
-      </c>
+      <c r="A50" s="21" t="n"/>
+      <c r="B50" s="21" t="n"/>
+      <c r="C50" s="21" t="n"/>
       <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E50" s="21" t="n"/>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#geo-filtering-best-practices</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="inlineStr">
-        <is>
-          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
-        </is>
-      </c>
+      <c r="L50" s="25" t="n"/>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B51" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C51" s="21" t="inlineStr">
-        <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Gateway de Aplicativo do Azure. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
-        </is>
-      </c>
+      <c r="A51" s="21" t="n"/>
+      <c r="B51" s="21" t="n"/>
+      <c r="C51" s="21" t="n"/>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E51" s="21" t="n"/>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/geomatch-custom-rules</t>
-        </is>
-      </c>
+      <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="inlineStr">
-        <is>
-          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
-        </is>
-      </c>
+      <c r="L51" s="25" t="n"/>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
       <c r="P51" s="25" t="n"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B52" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C52" s="21" t="inlineStr">
-        <is>
-          <t>Use a versão mais recente do conjunto de regras do WAF do Gateway de Aplicativo do Azure. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário de ameaças atual.</t>
-        </is>
-      </c>
+      <c r="A52" s="21" t="n"/>
+      <c r="B52" s="21" t="n"/>
+      <c r="C52" s="21" t="n"/>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E52" s="21" t="n"/>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#use-the-latest-ruleset-versions</t>
-        </is>
-      </c>
+      <c r="H52" s="15" t="n"/>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
-      <c r="L52" s="25" t="inlineStr">
-        <is>
-          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
-        </is>
-      </c>
+      <c r="L52" s="25" t="n"/>
       <c r="M52" s="25" t="n"/>
       <c r="N52" s="25" t="n"/>
       <c r="O52" s="25" t="n"/>
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B53" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C53" s="21" t="inlineStr">
-        <is>
-          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Gateway de Aplicativo do Azure.</t>
-        </is>
-      </c>
+      <c r="A53" s="21" t="n"/>
+      <c r="B53" s="21" t="n"/>
+      <c r="C53" s="21" t="n"/>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E53" s="21" t="n"/>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
+      <c r="H53" s="15" t="n"/>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="inlineStr">
-        <is>
-          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
-        </is>
-      </c>
+      <c r="L53" s="25" t="n"/>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
       <c r="P53" s="25" t="n"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B54" s="21" t="inlineStr">
-        <is>
-          <t>Porta da frente</t>
-        </is>
-      </c>
-      <c r="C54" s="21" t="inlineStr">
-        <is>
-          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door.</t>
-        </is>
-      </c>
+      <c r="A54" s="21" t="n"/>
+      <c r="B54" s="21" t="n"/>
+      <c r="C54" s="21" t="n"/>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E54" s="21" t="n"/>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
+      <c r="H54" s="15" t="n"/>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="25" t="inlineStr">
-        <is>
-          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
-        </is>
-      </c>
+      <c r="L54" s="25" t="n"/>
       <c r="M54" s="25" t="n"/>
       <c r="N54" s="25" t="n"/>
       <c r="O54" s="25" t="n"/>
       <c r="P54" s="25" t="n"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B55" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C55" s="21" t="inlineStr">
-        <is>
-          <t>Envie logs do WAF do Gateway de Aplicativo do Azure para o Microsoft Sentinel.</t>
-        </is>
-      </c>
+      <c r="A55" s="21" t="n"/>
+      <c r="B55" s="21" t="n"/>
+      <c r="C55" s="21" t="n"/>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E55" s="21" t="n"/>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
+      <c r="H55" s="15" t="n"/>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="25" t="inlineStr">
-        <is>
-          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
-        </is>
-      </c>
+      <c r="L55" s="25" t="n"/>
       <c r="M55" s="25" t="n"/>
       <c r="N55" s="25" t="n"/>
       <c r="O55" s="25" t="n"/>
       <c r="P55" s="25" t="n"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B56" s="21" t="inlineStr">
-        <is>
-          <t>Porta da frente</t>
-        </is>
-      </c>
-      <c r="C56" s="21" t="inlineStr">
-        <is>
-          <t>Envie logs do WAF do Azure Front Door para o Microsoft Sentinel.</t>
-        </is>
-      </c>
+      <c r="A56" s="21" t="n"/>
+      <c r="B56" s="21" t="n"/>
+      <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E56" s="21" t="n"/>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
+      <c r="H56" s="15" t="n"/>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="25" t="inlineStr">
-        <is>
-          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
-        </is>
-      </c>
+      <c r="L56" s="25" t="n"/>
       <c r="M56" s="25" t="n"/>
       <c r="N56" s="25" t="n"/>
       <c r="O56" s="25" t="n"/>
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B57" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C57" s="21" t="inlineStr">
-        <is>
-          <t>Defina a configuração do WAF do Gateway de Aplicativo do Azure como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
-        </is>
-      </c>
+      <c r="A57" s="21" t="n"/>
+      <c r="B57" s="21" t="n"/>
+      <c r="C57" s="21" t="n"/>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E57" s="21" t="n"/>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#define-your-waf-configuration-as-code</t>
-        </is>
-      </c>
+      <c r="H57" s="15" t="n"/>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="25" t="inlineStr">
-        <is>
-          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
-        </is>
-      </c>
+      <c r="L57" s="25" t="n"/>
       <c r="M57" s="25" t="n"/>
       <c r="N57" s="25" t="n"/>
       <c r="O57" s="25" t="n"/>
       <c r="P57" s="25" t="n"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B58" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C58" s="21" t="inlineStr">
-        <is>
-          <t>Use as Políticas do WAF em vez da configuração herdada do WAF.</t>
-        </is>
-      </c>
+      <c r="A58" s="21" t="n"/>
+      <c r="B58" s="21" t="n"/>
+      <c r="C58" s="21" t="n"/>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E58" s="21" t="n"/>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/policy-overview</t>
-        </is>
-      </c>
+      <c r="H58" s="15" t="n"/>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="25" t="inlineStr">
-        <is>
-          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
-        </is>
-      </c>
+      <c r="L58" s="25" t="n"/>
       <c r="M58" s="25" t="n"/>
       <c r="N58" s="25" t="n"/>
       <c r="O58" s="25" t="n"/>
       <c r="P58" s="25" t="n"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B59" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C59" s="21" t="inlineStr">
-        <is>
-          <t>Filtre o tráfego de entrada nos back-ends para que eles aceitem apenas conexões da sub-rede do Gateway de Aplicativo, por exemplo, com NSGs.</t>
-        </is>
-      </c>
+      <c r="A59" s="21" t="n"/>
+      <c r="B59" s="21" t="n"/>
+      <c r="C59" s="21" t="n"/>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E59" s="21" t="n"/>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-secured-hub-app-gateway</t>
-        </is>
-      </c>
+      <c r="H59" s="15" t="n"/>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
-      <c r="L59" s="25" t="inlineStr">
-        <is>
-          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
-        </is>
-      </c>
+      <c r="L59" s="25" t="n"/>
       <c r="M59" s="25" t="n"/>
       <c r="N59" s="25" t="n"/>
       <c r="O59" s="25" t="n"/>
       <c r="P59" s="25" t="n"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B60" s="21" t="inlineStr">
-        <is>
-          <t>Porta da frente</t>
-        </is>
-      </c>
-      <c r="C60" s="21" t="inlineStr">
-        <is>
-          <t>Verifique se suas origens recebem apenas o tráfego da instância do Azure Front Door.</t>
-        </is>
-      </c>
+      <c r="A60" s="21" t="n"/>
+      <c r="B60" s="21" t="n"/>
+      <c r="C60" s="21" t="n"/>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E60" s="21" t="n"/>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/origin-security?tabs=app-service-functions</t>
-        </is>
-      </c>
+      <c r="H60" s="15" t="n"/>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
-      <c r="L60" s="25" t="inlineStr">
-        <is>
-          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
-        </is>
-      </c>
+      <c r="L60" s="25" t="n"/>
       <c r="M60" s="25" t="n"/>
       <c r="N60" s="25" t="n"/>
       <c r="O60" s="25" t="n"/>
       <c r="P60" s="25" t="n"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B61" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C61" s="21" t="inlineStr">
-        <is>
-          <t>Você deve criptografar o tráfego para os servidores de back-end.</t>
-        </is>
-      </c>
+      <c r="A61" s="21" t="n"/>
+      <c r="B61" s="21" t="n"/>
+      <c r="C61" s="21" t="n"/>
       <c r="D61" s="21" t="n"/>
-      <c r="E61" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E61" s="21" t="n"/>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/ssl-overview</t>
-        </is>
-      </c>
+      <c r="H61" s="15" t="n"/>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
-      <c r="L61" s="25" t="inlineStr">
-        <is>
-          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
-        </is>
-      </c>
+      <c r="L61" s="25" t="n"/>
       <c r="M61" s="25" t="n"/>
       <c r="N61" s="25" t="n"/>
       <c r="O61" s="25" t="n"/>
       <c r="P61" s="25" t="n"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B62" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C62" s="21" t="inlineStr">
-        <is>
-          <t>Você deve usar um Web Application Firewall.</t>
-        </is>
-      </c>
+      <c r="A62" s="21" t="n"/>
+      <c r="B62" s="21" t="n"/>
+      <c r="C62" s="21" t="n"/>
       <c r="D62" s="21" t="n"/>
-      <c r="E62" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E62" s="21" t="n"/>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/overview</t>
-        </is>
-      </c>
+      <c r="H62" s="15" t="n"/>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
-      <c r="L62" s="25" t="inlineStr">
-        <is>
-          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
-        </is>
-      </c>
+      <c r="L62" s="25" t="n"/>
       <c r="M62" s="25" t="n"/>
       <c r="N62" s="25" t="n"/>
       <c r="O62" s="25" t="n"/>
       <c r="P62" s="25" t="n"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
-      <c r="A63" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B63" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C63" s="21" t="inlineStr">
-        <is>
-          <t>Redirecionar HTTP para HTTPS</t>
-        </is>
-      </c>
+      <c r="A63" s="21" t="n"/>
+      <c r="B63" s="21" t="n"/>
+      <c r="C63" s="21" t="n"/>
       <c r="D63" s="21" t="n"/>
-      <c r="E63" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E63" s="21" t="n"/>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/redirect-overview</t>
-        </is>
-      </c>
+      <c r="H63" s="15" t="n"/>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
-      <c r="L63" s="25" t="inlineStr">
-        <is>
-          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
-        </is>
-      </c>
+      <c r="L63" s="25" t="n"/>
       <c r="M63" s="25" t="n"/>
       <c r="N63" s="25" t="n"/>
       <c r="O63" s="25" t="n"/>
       <c r="P63" s="25" t="n"/>
     </row>
     <row r="64" ht="16.5" customHeight="1">
-      <c r="A64" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B64" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C64" s="21" t="inlineStr">
-        <is>
-          <t>Use cookies gerenciados por gateway para direcionar o tráfego de uma sessão de usuário para o mesmo servidor para processamento</t>
-        </is>
-      </c>
+      <c r="A64" s="21" t="n"/>
+      <c r="B64" s="21" t="n"/>
+      <c r="C64" s="21" t="n"/>
       <c r="D64" s="21" t="n"/>
-      <c r="E64" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E64" s="21" t="n"/>
       <c r="G64" s="21" t="n"/>
-      <c r="H64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/how-application-gateway-works#modifications-to-the-request</t>
-        </is>
-      </c>
+      <c r="H64" s="15" t="n"/>
       <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
-      <c r="L64" s="25" t="inlineStr">
-        <is>
-          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
-        </is>
-      </c>
+      <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
       <c r="N64" s="25" t="n"/>
       <c r="O64" s="25" t="n"/>
       <c r="P64" s="25" t="n"/>
     </row>
     <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B65" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C65" s="21" t="inlineStr">
-        <is>
-          <t>Habilitar a drenagem de conexão durante atualizações de serviço planejadas para evitar a perda de conexão para membros existentes do pool de back-end</t>
-        </is>
-      </c>
+      <c r="A65" s="21" t="n"/>
+      <c r="B65" s="21" t="n"/>
+      <c r="C65" s="21" t="n"/>
       <c r="D65" s="21" t="n"/>
-      <c r="E65" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E65" s="21" t="n"/>
       <c r="G65" s="21" t="n"/>
-      <c r="H65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-http-settings</t>
-        </is>
-      </c>
+      <c r="H65" s="15" t="n"/>
       <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
-      <c r="L65" s="25" t="inlineStr">
-        <is>
-          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
-        </is>
-      </c>
+      <c r="L65" s="25" t="n"/>
       <c r="M65" s="25" t="n"/>
       <c r="N65" s="25" t="n"/>
       <c r="O65" s="25" t="n"/>
       <c r="P65" s="25" t="n"/>
     </row>
     <row r="66" ht="16.5" customHeight="1">
-      <c r="A66" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B66" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C66" s="21" t="inlineStr">
-        <is>
-          <t>Crie páginas de erro personalizadas para exibir uma experiência de usuário personalizada</t>
-        </is>
-      </c>
+      <c r="A66" s="21" t="n"/>
+      <c r="B66" s="21" t="n"/>
+      <c r="C66" s="21" t="n"/>
       <c r="D66" s="21" t="n"/>
-      <c r="E66" s="21" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E66" s="21" t="n"/>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/custom-error</t>
-        </is>
-      </c>
+      <c r="H66" s="15" t="n"/>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
-      <c r="L66" s="25" t="inlineStr">
-        <is>
-          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
-        </is>
-      </c>
+      <c r="L66" s="25" t="n"/>
       <c r="M66" s="25" t="n"/>
       <c r="N66" s="25" t="n"/>
       <c r="O66" s="25" t="n"/>
       <c r="P66" s="25" t="n"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B67" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C67" s="21" t="inlineStr">
-        <is>
-          <t>Edite solicitações HTTP e cabeçalhos de resposta para facilitar o roteamento e a troca de informações entre o cliente e o servidor</t>
-        </is>
-      </c>
+      <c r="A67" s="21" t="n"/>
+      <c r="B67" s="21" t="n"/>
+      <c r="C67" s="21" t="n"/>
       <c r="D67" s="21" t="n"/>
-      <c r="E67" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E67" s="21" t="n"/>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/rewrite-http-headers-url</t>
-        </is>
-      </c>
+      <c r="H67" s="15" t="n"/>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
-      <c r="L67" s="25" t="inlineStr">
-        <is>
-          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
-        </is>
-      </c>
+      <c r="L67" s="25" t="n"/>
       <c r="M67" s="25" t="n"/>
       <c r="N67" s="25" t="n"/>
       <c r="O67" s="25" t="n"/>
       <c r="P67" s="25" t="n"/>
     </row>
     <row r="68" ht="16.5" customHeight="1">
-      <c r="A68" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B68" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C68" s="21" t="inlineStr">
-        <is>
-          <t>Configure o Front Door para otimizar o roteamento de tráfego da Web global e o desempenho e a confiabilidade do usuário final de nível superior por meio de failover global rápido</t>
-        </is>
-      </c>
+      <c r="A68" s="21" t="n"/>
+      <c r="B68" s="21" t="n"/>
+      <c r="C68" s="21" t="n"/>
       <c r="D68" s="21" t="n"/>
-      <c r="E68" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E68" s="21" t="n"/>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
-        </is>
-      </c>
+      <c r="H68" s="15" t="n"/>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
-      <c r="L68" s="25" t="inlineStr">
-        <is>
-          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
-        </is>
-      </c>
+      <c r="L68" s="25" t="n"/>
       <c r="M68" s="25" t="n"/>
       <c r="N68" s="25" t="n"/>
       <c r="O68" s="25" t="n"/>
       <c r="P68" s="25" t="n"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B69" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C69" s="21" t="inlineStr">
-        <is>
-          <t>Usar o balanceamento de carga da camada de transporte</t>
-        </is>
-      </c>
+      <c r="A69" s="21" t="n"/>
+      <c r="B69" s="21" t="n"/>
+      <c r="C69" s="21" t="n"/>
       <c r="D69" s="21" t="n"/>
-      <c r="E69" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E69" s="21" t="n"/>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
-        </is>
-      </c>
+      <c r="H69" s="15" t="n"/>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
-      <c r="L69" s="25" t="inlineStr">
-        <is>
-          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
-        </is>
-      </c>
+      <c r="L69" s="25" t="n"/>
       <c r="M69" s="25" t="n"/>
       <c r="N69" s="25" t="n"/>
       <c r="O69" s="25" t="n"/>
       <c r="P69" s="25" t="n"/>
     </row>
     <row r="70" ht="16.5" customHeight="1">
-      <c r="A70" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B70" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C70" s="21" t="inlineStr">
-        <is>
-          <t>Configurar o roteamento com base no host ou no nome de domínio para vários aplicativos Web em um único gateway</t>
-        </is>
-      </c>
+      <c r="A70" s="21" t="n"/>
+      <c r="B70" s="21" t="n"/>
+      <c r="C70" s="21" t="n"/>
       <c r="D70" s="21" t="n"/>
-      <c r="E70" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E70" s="21" t="n"/>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/multiple-site-overview</t>
-        </is>
-      </c>
+      <c r="H70" s="15" t="n"/>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
-      <c r="L70" s="25" t="inlineStr">
-        <is>
-          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
-        </is>
-      </c>
+      <c r="L70" s="25" t="n"/>
       <c r="M70" s="25" t="n"/>
       <c r="N70" s="25" t="n"/>
       <c r="O70" s="25" t="n"/>
       <c r="P70" s="25" t="n"/>
     </row>
     <row r="71" ht="16.5" customHeight="1">
-      <c r="A71" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B71" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C71" s="21" t="inlineStr">
-        <is>
-          <t>Centralize o gerenciamento de certificados SSL para reduzir a sobrecarga de criptografia e descriptografia de um farm de servidores de back-end</t>
-        </is>
-      </c>
+      <c r="A71" s="21" t="n"/>
+      <c r="B71" s="21" t="n"/>
+      <c r="C71" s="21" t="n"/>
       <c r="D71" s="21" t="n"/>
-      <c r="E71" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E71" s="21" t="n"/>
       <c r="G71" s="21" t="n"/>
-      <c r="H71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/create-ssl-portal</t>
-        </is>
-      </c>
+      <c r="H71" s="15" t="n"/>
       <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
-      <c r="L71" s="25" t="inlineStr">
-        <is>
-          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
-        </is>
-      </c>
+      <c r="L71" s="25" t="n"/>
       <c r="M71" s="25" t="n"/>
       <c r="N71" s="25" t="n"/>
       <c r="O71" s="25" t="n"/>
       <c r="P71" s="25" t="n"/>
     </row>
     <row r="72" ht="16.5" customHeight="1">
-      <c r="A72" s="21" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
-      <c r="B72" s="21" t="inlineStr">
-        <is>
-          <t>Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="C72" s="21" t="inlineStr">
-        <is>
-          <t>Usar o Gateway de Aplicativo para obter suporte nativo para protocolos WebSocket e HTTP/2</t>
-        </is>
-      </c>
+      <c r="A72" s="21" t="n"/>
+      <c r="B72" s="21" t="n"/>
+      <c r="C72" s="21" t="n"/>
       <c r="D72" s="21" t="n"/>
-      <c r="E72" s="21" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E72" s="21" t="n"/>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-websocket</t>
-        </is>
-      </c>
+      <c r="H72" s="15" t="n"/>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
-      <c r="L72" s="25" t="inlineStr">
-        <is>
-          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
-        </is>
-      </c>
+      <c r="L72" s="25" t="n"/>
       <c r="M72" s="25" t="n"/>
       <c r="N72" s="25" t="n"/>
       <c r="O72" s="25" t="n"/>
@@ -7744,7 +7015,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F73" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F48" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.pt.xlsx
@@ -1382,7 +1382,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/tutorial-protect-application-gateway-ddos</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
